--- a/doc/metadata.xlsx
+++ b/doc/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songweizhi/PycharmProjects/hkspongedb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D14011-1B88-0F43-99A6-9F704CB2BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D957EF69-4ABB-D945-B99A-C8C4703FCEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{0C13FA68-B948-3E44-9F94-0A81A21F8A74}"/>
   </bookViews>
@@ -832,7 +832,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1815,10 +1815,10 @@
         <v>114</v>
       </c>
       <c r="E26" s="3">
-        <v>22.3279</v>
+        <v>22.363800000000001</v>
       </c>
       <c r="F26" s="3">
-        <v>114.3019</v>
+        <v>114.2911</v>
       </c>
       <c r="G26" t="s">
         <v>131</v>

--- a/doc/metadata.xlsx
+++ b/doc/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songweizhi/PycharmProjects/hkspongedb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D957EF69-4ABB-D945-B99A-C8C4703FCEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208589CB-23FE-3C4D-91C4-F8081C486E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{0C13FA68-B948-3E44-9F94-0A81A21F8A74}"/>
+    <workbookView xWindow="14460" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{0C13FA68-B948-3E44-9F94-0A81A21F8A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="135">
   <si>
     <t>Image</t>
   </si>
@@ -407,37 +407,40 @@
     <t>doc/images/20250809_Shelter_Island_E_2.jpg</t>
   </si>
   <si>
-    <t>doc/images/20250809_Sharp_Island_E_3.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_NE_4.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_NE_6.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_E_8.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_E_11.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_E_10.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_E_12.JPG</t>
-  </si>
-  <si>
     <t>Sharp Island</t>
   </si>
   <si>
     <t>Markus RUMMEL</t>
   </si>
   <si>
-    <t>Lucia HU and  Markus RUMMEL</t>
-  </si>
-  <si>
     <t>Shan ZHANG and Weizhi SONG</t>
+  </si>
+  <si>
+    <t>doc/images/20250809_Sharp_Island_E_3.jpg</t>
+  </si>
+  <si>
+    <t>doc/images/20250903_Sharp_Island_NE_4.jpg</t>
+  </si>
+  <si>
+    <t>doc/images/20250903_Sharp_Island_NE_6.jpg</t>
+  </si>
+  <si>
+    <t>doc/images/20250903_Sharp_Island_E_8.jpg</t>
+  </si>
+  <si>
+    <t>doc/images/20250903_Sharp_Island_E_10.jpg</t>
+  </si>
+  <si>
+    <t>doc/images/20250903_Sharp_Island_E_11.jpg</t>
+  </si>
+  <si>
+    <t>doc/images/20250903_Sharp_Island_E_12.jpg</t>
+  </si>
+  <si>
+    <t>Shelter Island</t>
+  </si>
+  <si>
+    <t>Lucia HU and Markus RUMMEL</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,7 +912,7 @@
         <v>114.36539999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H2" s="4">
         <v>44658</v>
@@ -947,7 +950,7 @@
         <v>114.36539999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>22</v>
@@ -985,7 +988,7 @@
         <v>114.36539999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>26</v>
@@ -1023,7 +1026,7 @@
         <v>114.33369999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>33</v>
@@ -1061,7 +1064,7 @@
         <v>114.33369999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>38</v>
@@ -1099,7 +1102,7 @@
         <v>114.3562</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H7" s="4">
         <v>44783</v>
@@ -1137,7 +1140,7 @@
         <v>114.36450000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4">
         <v>44563</v>
@@ -1175,7 +1178,7 @@
         <v>114.3698</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4">
         <v>44207</v>
@@ -1213,7 +1216,7 @@
         <v>114.3698</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>58</v>
@@ -1251,7 +1254,7 @@
         <v>114.3698</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H11" s="4">
         <v>44478</v>
@@ -1289,7 +1292,7 @@
         <v>114.3698</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>66</v>
@@ -1327,7 +1330,7 @@
         <v>114.3933</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H13" s="4">
         <v>45203</v>
@@ -1365,7 +1368,7 @@
         <v>114.3933</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H14" s="4">
         <v>44626</v>
@@ -1403,7 +1406,7 @@
         <v>114.41679999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H15" s="4">
         <v>44448</v>
@@ -1441,7 +1444,7 @@
         <v>114.41679999999999</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H16" s="4">
         <v>44448</v>
@@ -1479,7 +1482,7 @@
         <v>114.41679999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H17" s="4">
         <v>44204</v>
@@ -1517,7 +1520,7 @@
         <v>114.41679999999999</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>90</v>
@@ -1555,7 +1558,7 @@
         <v>114.1854</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>96</v>
@@ -1593,7 +1596,7 @@
         <v>114.3498</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H20" s="4">
         <v>45265</v>
@@ -1631,7 +1634,7 @@
         <v>114.3498</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H21" s="4">
         <v>45265</v>
@@ -1669,7 +1672,7 @@
         <v>114.3498</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H22" s="4">
         <v>45265</v>
@@ -1707,7 +1710,7 @@
         <v>114.2671</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H23" s="4">
         <v>45966</v>
@@ -1733,7 +1736,7 @@
         <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
         <v>111</v>
@@ -1745,7 +1748,7 @@
         <v>114.3019</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H24" s="3">
         <v>20250809</v>
@@ -1771,7 +1774,7 @@
         <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
@@ -1783,7 +1786,7 @@
         <v>114.3019</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H25" s="3">
         <v>20250809</v>
@@ -1806,10 +1809,10 @@
         <v>113</v>
       </c>
       <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
         <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
       </c>
       <c r="D26" t="s">
         <v>114</v>
@@ -1821,7 +1824,7 @@
         <v>114.2911</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H26" s="3">
         <v>20250903</v>
@@ -1844,10 +1847,10 @@
         <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>114</v>
@@ -1859,7 +1862,7 @@
         <v>114.2911</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H27" s="3">
         <v>20250903</v>
@@ -1882,10 +1885,10 @@
         <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
         <v>114</v>
@@ -1897,7 +1900,7 @@
         <v>114.2911</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H28" s="3">
         <v>20250903</v>
@@ -1920,10 +1923,10 @@
         <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -1935,7 +1938,7 @@
         <v>114.2911</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H29" s="3">
         <v>20250903</v>
@@ -1958,10 +1961,10 @@
         <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
         <v>114</v>
@@ -1973,7 +1976,7 @@
         <v>114.2911</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H30" s="3">
         <v>20250903</v>
@@ -1996,10 +1999,10 @@
         <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>114</v>
@@ -2011,7 +2014,7 @@
         <v>114.29049999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H31" s="3">
         <v>20250903</v>
@@ -2034,10 +2037,10 @@
         <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
         <v>114</v>
@@ -2049,7 +2052,7 @@
         <v>114.29</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H32" s="3">
         <v>20250903</v>

--- a/doc/metadata.xlsx
+++ b/doc/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songweizhi/PycharmProjects/hkspongedb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208589CB-23FE-3C4D-91C4-F8081C486E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC2698C-6C4B-A54A-B977-91B02D9FBC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{0C13FA68-B948-3E44-9F94-0A81A21F8A74}"/>
+    <workbookView xWindow="14460" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0C13FA68-B948-3E44-9F94-0A81A21F8A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="141">
   <si>
     <t>Image</t>
   </si>
@@ -441,6 +441,24 @@
   </si>
   <si>
     <t>Lucia HU and Markus RUMMEL</t>
+  </si>
+  <si>
+    <t>doc/images/20250905_Tai_Long_Wan_1.jpg</t>
+  </si>
+  <si>
+    <t>doc/images/20250905_Tai_Long_Wan_3.jpg</t>
+  </si>
+  <si>
+    <t>doc/images/20250905_Tai_Long_Wan_4.jpg</t>
+  </si>
+  <si>
+    <t>hksd_s35</t>
+  </si>
+  <si>
+    <t>hksd_s33</t>
+  </si>
+  <si>
+    <t>hksd_s34</t>
   </si>
 </sst>
 </file>
@@ -829,13 +847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3115F871-A5BC-864F-8F6D-466AFA625F64}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2070,6 +2088,120 @@
         <v>16</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="3">
+        <v>22.402999999999999</v>
+      </c>
+      <c r="F33" s="3">
+        <v>114.3937</v>
+      </c>
+      <c r="G33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="3">
+        <v>20250905</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="3">
+        <v>22.402999999999999</v>
+      </c>
+      <c r="F34" s="3">
+        <v>114.3937</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="3">
+        <v>20250905</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="3">
+        <v>22.402999999999999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>114.3937</v>
+      </c>
+      <c r="G35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="3">
+        <v>20250905</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/metadata.xlsx
+++ b/doc/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songweizhi/PycharmProjects/hkspongedb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC2698C-6C4B-A54A-B977-91B02D9FBC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57EEA26-C49E-5041-B9FD-0887A4FCEE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0C13FA68-B948-3E44-9F94-0A81A21F8A74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
   <si>
     <t>Image</t>
   </si>
@@ -80,9 +80,6 @@
     <t>hksd_s1</t>
   </si>
   <si>
-    <t>Basalt island</t>
-  </si>
-  <si>
     <t>火石洲</t>
   </si>
   <si>
@@ -459,6 +456,72 @@
   </si>
   <si>
     <t>hksd_s34</t>
+  </si>
+  <si>
+    <t>hksd_s36</t>
+  </si>
+  <si>
+    <t>hksd_s37</t>
+  </si>
+  <si>
+    <t>hksd_s38</t>
+  </si>
+  <si>
+    <t>hksd_s39</t>
+  </si>
+  <si>
+    <t>hksd_s40</t>
+  </si>
+  <si>
+    <t>hksd_s41</t>
+  </si>
+  <si>
+    <t>hksd_s42</t>
+  </si>
+  <si>
+    <t>hksd_s43</t>
+  </si>
+  <si>
+    <t>hksd_s44</t>
+  </si>
+  <si>
+    <t>doc/images/EM100163.JPG</t>
+  </si>
+  <si>
+    <t>doc/images/EM100147.JPG</t>
+  </si>
+  <si>
+    <t>doc/images/EM100049.JPG</t>
+  </si>
+  <si>
+    <t>doc/images/EM100076.JPG</t>
+  </si>
+  <si>
+    <t>doc/images/EM100081.JPG</t>
+  </si>
+  <si>
+    <t>doc/images/EM100040.JPG</t>
+  </si>
+  <si>
+    <t>doc/images/EM100024.JPG</t>
+  </si>
+  <si>
+    <t>doc/images/EM100031.JPG</t>
+  </si>
+  <si>
+    <t>doc/images/EM100009.JPG</t>
+  </si>
+  <si>
+    <t>橋咀洲或火石洲</t>
+  </si>
+  <si>
+    <t>Sharp Island or Basalt Island</t>
+  </si>
+  <si>
+    <t>to be added</t>
+  </si>
+  <si>
+    <t>Basalt Island</t>
   </si>
 </sst>
 </file>
@@ -501,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -512,6 +575,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,29 +916,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3115F871-A5BC-864F-8F6D-466AFA625F64}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="17" style="3" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="8" width="20" style="3" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
     <col min="10" max="10" width="26.1640625" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="36" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -906,7 +975,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -918,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>22.3157</v>
@@ -930,36 +999,36 @@
         <v>114.36539999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" s="4">
         <v>44658</v>
       </c>
       <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="3">
         <v>22.3157</v>
@@ -968,36 +1037,36 @@
         <v>114.36539999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="3">
         <v>22.3157</v>
@@ -1006,36 +1075,36 @@
         <v>114.36539999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="3">
         <v>22.469899999999999</v>
@@ -1044,36 +1113,36 @@
         <v>114.33369999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="3">
         <v>22.469899999999999</v>
@@ -1082,36 +1151,36 @@
         <v>114.33369999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="3">
         <v>22.263500000000001</v>
@@ -1120,36 +1189,36 @@
         <v>114.3562</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="4">
         <v>44783</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="3">
         <v>22.353100000000001</v>
@@ -1158,36 +1227,36 @@
         <v>114.36450000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="4">
         <v>44563</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="3">
         <v>22.344799999999999</v>
@@ -1196,36 +1265,36 @@
         <v>114.3698</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="4">
         <v>44207</v>
       </c>
       <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
       </c>
       <c r="E10" s="3">
         <v>22.344799999999999</v>
@@ -1234,36 +1303,36 @@
         <v>114.3698</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
       </c>
       <c r="E11" s="3">
         <v>22.344799999999999</v>
@@ -1272,36 +1341,36 @@
         <v>114.3698</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" s="4">
         <v>44478</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>22.344799999999999</v>
@@ -1310,36 +1379,36 @@
         <v>114.3698</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
       </c>
       <c r="E13" s="3">
         <v>22.403300000000002</v>
@@ -1348,36 +1417,36 @@
         <v>114.3933</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" s="4">
         <v>45203</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
       </c>
       <c r="E14" s="3">
         <v>22.403300000000002</v>
@@ -1386,36 +1455,36 @@
         <v>114.3933</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="4">
         <v>44626</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
       </c>
       <c r="E15" s="3">
         <v>22.466699999999999</v>
@@ -1424,36 +1493,36 @@
         <v>114.41679999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="4">
         <v>44448</v>
       </c>
       <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="3">
         <v>22.466699999999999</v>
@@ -1462,36 +1531,36 @@
         <v>114.41679999999999</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="4">
         <v>44448</v>
       </c>
       <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
-        <v>84</v>
+        <v>17</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
       </c>
       <c r="E17" s="3">
         <v>22.466699999999999</v>
@@ -1500,36 +1569,36 @@
         <v>114.41679999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="4">
         <v>44204</v>
       </c>
       <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
       </c>
       <c r="E18" s="3">
         <v>22.466699999999999</v>
@@ -1538,36 +1607,36 @@
         <v>114.41679999999999</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
       </c>
       <c r="E19" s="3">
         <v>22.215800000000002</v>
@@ -1576,36 +1645,36 @@
         <v>114.1854</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
         <v>99</v>
       </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>101</v>
       </c>
       <c r="E20" s="3">
         <v>22.320799999999998</v>
@@ -1614,36 +1683,36 @@
         <v>114.3498</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="4">
         <v>45265</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
         <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
       </c>
       <c r="E21" s="3">
         <v>22.320799999999998</v>
@@ -1652,36 +1721,36 @@
         <v>114.3498</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21" s="4">
         <v>45265</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
         <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
       </c>
       <c r="E22" s="3">
         <v>22.320799999999998</v>
@@ -1690,36 +1759,36 @@
         <v>114.3498</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="4">
         <v>45265</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>108</v>
-      </c>
-      <c r="D23" t="s">
-        <v>109</v>
       </c>
       <c r="E23" s="3">
         <v>22.3385</v>
@@ -1728,36 +1797,36 @@
         <v>114.2671</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H23" s="4">
         <v>45966</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
       </c>
       <c r="E24" s="3">
         <v>22.3279</v>
@@ -1766,36 +1835,36 @@
         <v>114.3019</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="3">
         <v>20250809</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="3">
         <v>22.3279</v>
@@ -1804,36 +1873,36 @@
         <v>114.3019</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="3">
         <v>20250809</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
         <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
       </c>
       <c r="E26" s="3">
         <v>22.363800000000001</v>
@@ -1842,36 +1911,36 @@
         <v>114.2911</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="3">
         <v>20250903</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="3">
         <v>22.363800000000001</v>
@@ -1880,36 +1949,36 @@
         <v>114.2911</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="3">
         <v>20250903</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E28" s="3">
         <v>22.363800000000001</v>
@@ -1918,36 +1987,36 @@
         <v>114.2911</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="3">
         <v>20250903</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="3">
         <v>22.363800000000001</v>
@@ -1956,36 +2025,36 @@
         <v>114.2911</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" s="3">
         <v>20250903</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="3">
         <v>22.363800000000001</v>
@@ -1994,36 +2063,36 @@
         <v>114.2911</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" s="3">
         <v>20250903</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3">
         <v>22.363499999999998</v>
@@ -2032,36 +2101,36 @@
         <v>114.29049999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" s="3">
         <v>20250903</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="3">
         <v>22.3644</v>
@@ -2070,36 +2139,36 @@
         <v>114.29</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" s="3">
         <v>20250903</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
         <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
       </c>
       <c r="E33" s="3">
         <v>22.402999999999999</v>
@@ -2108,36 +2177,36 @@
         <v>114.3937</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H33" s="3">
         <v>20250905</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
       </c>
       <c r="E34" s="3">
         <v>22.402999999999999</v>
@@ -2146,36 +2215,36 @@
         <v>114.3937</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H34" s="3">
         <v>20250905</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
       </c>
       <c r="E35" s="3">
         <v>22.402999999999999</v>
@@ -2184,22 +2253,364 @@
         <v>114.3937</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="3">
         <v>20250905</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F36" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F37" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F39" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F40" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F41" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F42" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F43" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/doc/metadata.xlsx
+++ b/doc/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songweizhi/PycharmProjects/hkspongedb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57EEA26-C49E-5041-B9FD-0887A4FCEE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34BE63-99DA-8F42-89AF-2469943A4104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0C13FA68-B948-3E44-9F94-0A81A21F8A74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="171">
   <si>
     <t>Image</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>doc/images/Basalt_island_HaliclonaEM101059May2022.jpg</t>
-  </si>
-  <si>
     <t>hksd_s1</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Haliclona EM101059</t>
   </si>
   <si>
-    <t>doc/images/Basalt_island_HaliclonaEM100267_1.jpg</t>
-  </si>
-  <si>
     <t>hksd_s2</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Haliclona EM100267_1</t>
   </si>
   <si>
-    <t>doc/images/Basalt_island_ChondrillaEM108591July2022.jpg</t>
-  </si>
-  <si>
     <t>hksd_s3</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>Chondrilla EM108591</t>
   </si>
   <si>
-    <t>doc/images/Hoi_Ha_Wan_MycaleEM100241.jpg</t>
-  </si>
-  <si>
     <t>hksd_s4</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t>Mycale EM100241</t>
   </si>
   <si>
-    <t>doc/images/Hoi_Ha_Wan_ChondrillaEM100221_2.jpg</t>
-  </si>
-  <si>
     <t>hksd_s5</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>Chondrilla EM100221_2</t>
   </si>
   <si>
-    <t>doc/images/Ninepin_Island_Spheciospongia_vagbundusP9102415.jpg</t>
-  </si>
-  <si>
     <t>hksd_s6</t>
   </si>
   <si>
@@ -173,9 +155,6 @@
     <t>Spheciospongia vagbundus P9102415</t>
   </si>
   <si>
-    <t>doc/images/Pak_Lap_Tsai_Spheciospongia_vagbundusP1010052.jpg</t>
-  </si>
-  <si>
     <t>hksd_s7</t>
   </si>
   <si>
@@ -188,9 +167,6 @@
     <t>Spheciospongia vagbundus P1010052</t>
   </si>
   <si>
-    <t>doc/images/Wong_Ngai_Chau_HaliclonaEM100294.jpg</t>
-  </si>
-  <si>
     <t>hksd_s8</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t>Haliclona EM100294</t>
   </si>
   <si>
-    <t>doc/images/Wong_Ngai_Chau_HaliclonaEM530228April2023.jpg</t>
-  </si>
-  <si>
     <t>hksd_s9</t>
   </si>
   <si>
@@ -215,9 +188,6 @@
     <t>Haliclona EM530228</t>
   </si>
   <si>
-    <t>doc/images/Wong_Ngai_Chau_HaliclonaHaliclonaP1010029_2.jpg</t>
-  </si>
-  <si>
     <t>hksd_s10</t>
   </si>
   <si>
@@ -227,9 +197,6 @@
     <t>Haliclona Haliclona P1010029_2</t>
   </si>
   <si>
-    <t>doc/images/Wong_Ngai_Chau_HaliclonaP1011072.jpg</t>
-  </si>
-  <si>
     <t>hksd_s11</t>
   </si>
   <si>
@@ -239,9 +206,6 @@
     <t>Haliclona P1011072</t>
   </si>
   <si>
-    <t>doc/images/Tai_Long_Wan_Mycale humilisEM530228Feb2023.jpg</t>
-  </si>
-  <si>
     <t>hksd_s12</t>
   </si>
   <si>
@@ -257,18 +221,12 @@
     <t>Mycale humilis EM530228</t>
   </si>
   <si>
-    <t>doc/images/Tai_Long_Wan_ChondrillaEM100890April2022_1.jpg</t>
-  </si>
-  <si>
     <t>hksd_s13</t>
   </si>
   <si>
     <t>Chondrilla EM100890</t>
   </si>
   <si>
-    <t>doc/images/Breakers_Reef_HaliclonaEM100028.jpg</t>
-  </si>
-  <si>
     <t>hksd_s14</t>
   </si>
   <si>
@@ -281,27 +239,18 @@
     <t>Haliclona EM100028</t>
   </si>
   <si>
-    <t>doc/images/Breakers_Reef_HaliclonaEM100033.jpg</t>
-  </si>
-  <si>
     <t>hksd_s15</t>
   </si>
   <si>
     <t>Haliclona EM100033</t>
   </si>
   <si>
-    <t>doc/images/Breakers_Reef_HaliclonaEM100125_3.jpg</t>
-  </si>
-  <si>
     <t>hksd_s16</t>
   </si>
   <si>
     <t>Haliclona EM100125_3</t>
   </si>
   <si>
-    <t>doc/images/Breakers_Reef_HaliclonaEM100129.jpg</t>
-  </si>
-  <si>
     <t>hksd_s17</t>
   </si>
   <si>
@@ -311,9 +260,6 @@
     <t>Haliclona EM100129</t>
   </si>
   <si>
-    <t>doc/images/Round_Island_MycaleEM100152.jpg</t>
-  </si>
-  <si>
     <t>hksd_s18</t>
   </si>
   <si>
@@ -329,9 +275,6 @@
     <t>Mycale EM100152</t>
   </si>
   <si>
-    <t>doc/images/Bluff_Island_IMG_1896.jpg</t>
-  </si>
-  <si>
     <t>hksd_s19</t>
   </si>
   <si>
@@ -341,21 +284,12 @@
     <t>沙塘口山</t>
   </si>
   <si>
-    <t>doc/images/Bluff_Island_IMG_1901.jpg</t>
-  </si>
-  <si>
     <t>hksd_s20</t>
   </si>
   <si>
-    <t>doc/images/Bluff_Island_IMG_1919.jpg</t>
-  </si>
-  <si>
     <t>hksd_s21</t>
   </si>
   <si>
-    <t>doc/images/HKUST_BBQ_site.png</t>
-  </si>
-  <si>
     <t>hksd_s23</t>
   </si>
   <si>
@@ -398,12 +332,6 @@
     <t>hksd_s32</t>
   </si>
   <si>
-    <t>doc/images/20250809_Shelter_Island_E_1.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250809_Shelter_Island_E_2.jpg</t>
-  </si>
-  <si>
     <t>Sharp Island</t>
   </si>
   <si>
@@ -413,42 +341,12 @@
     <t>Shan ZHANG and Weizhi SONG</t>
   </si>
   <si>
-    <t>doc/images/20250809_Sharp_Island_E_3.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_NE_4.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_NE_6.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_E_8.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_E_10.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_E_11.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250903_Sharp_Island_E_12.jpg</t>
-  </si>
-  <si>
     <t>Shelter Island</t>
   </si>
   <si>
     <t>Lucia HU and Markus RUMMEL</t>
   </si>
   <si>
-    <t>doc/images/20250905_Tai_Long_Wan_1.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250905_Tai_Long_Wan_3.jpg</t>
-  </si>
-  <si>
-    <t>doc/images/20250905_Tai_Long_Wan_4.jpg</t>
-  </si>
-  <si>
     <t>hksd_s35</t>
   </si>
   <si>
@@ -485,33 +383,6 @@
     <t>hksd_s44</t>
   </si>
   <si>
-    <t>doc/images/EM100163.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/EM100147.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/EM100049.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/EM100076.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/EM100081.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/EM100040.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/EM100024.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/EM100031.JPG</t>
-  </si>
-  <si>
-    <t>doc/images/EM100009.JPG</t>
-  </si>
-  <si>
     <t>橋咀洲或火石洲</t>
   </si>
   <si>
@@ -522,6 +393,162 @@
   </si>
   <si>
     <t>Basalt Island</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Basalt_island_HaliclonaEM101059May2022.jpg</t>
+  </si>
+  <si>
+    <t>Basalt_island_HaliclonaEM100267_1.jpg</t>
+  </si>
+  <si>
+    <t>Basalt_island_ChondrillaEM108591July2022.jpg</t>
+  </si>
+  <si>
+    <t>Hoi_Ha_Wan_MycaleEM100241.jpg</t>
+  </si>
+  <si>
+    <t>Hoi_Ha_Wan_ChondrillaEM100221_2.jpg</t>
+  </si>
+  <si>
+    <t>Ninepin_Island_Spheciospongia_vagbundusP9102415.jpg</t>
+  </si>
+  <si>
+    <t>Pak_Lap_Tsai_Spheciospongia_vagbundusP1010052.jpg</t>
+  </si>
+  <si>
+    <t>Wong_Ngai_Chau_HaliclonaEM100294.jpg</t>
+  </si>
+  <si>
+    <t>Wong_Ngai_Chau_HaliclonaEM530228April2023.jpg</t>
+  </si>
+  <si>
+    <t>Wong_Ngai_Chau_HaliclonaHaliclonaP1010029_2.jpg</t>
+  </si>
+  <si>
+    <t>Wong_Ngai_Chau_HaliclonaP1011072.jpg</t>
+  </si>
+  <si>
+    <t>Tai_Long_Wan_Mycale humilisEM530228Feb2023.jpg</t>
+  </si>
+  <si>
+    <t>Tai_Long_Wan_ChondrillaEM100890April2022_1.jpg</t>
+  </si>
+  <si>
+    <t>Breakers_Reef_HaliclonaEM100028.jpg</t>
+  </si>
+  <si>
+    <t>Breakers_Reef_HaliclonaEM100033.jpg</t>
+  </si>
+  <si>
+    <t>Breakers_Reef_HaliclonaEM100125_3.jpg</t>
+  </si>
+  <si>
+    <t>Breakers_Reef_HaliclonaEM100129.jpg</t>
+  </si>
+  <si>
+    <t>Round_Island_MycaleEM100152.jpg</t>
+  </si>
+  <si>
+    <t>Bluff_Island_IMG_1896.jpg</t>
+  </si>
+  <si>
+    <t>Bluff_Island_IMG_1901.jpg</t>
+  </si>
+  <si>
+    <t>Bluff_Island_IMG_1919.jpg</t>
+  </si>
+  <si>
+    <t>HKUST_BBQ_site.png</t>
+  </si>
+  <si>
+    <t>20250809_Shelter_Island_E_1.jpg</t>
+  </si>
+  <si>
+    <t>20250809_Shelter_Island_E_2.jpg</t>
+  </si>
+  <si>
+    <t>20250809_Sharp_Island_E_3.jpg</t>
+  </si>
+  <si>
+    <t>20250903_Sharp_Island_NE_4.jpg</t>
+  </si>
+  <si>
+    <t>20250903_Sharp_Island_NE_6.jpg</t>
+  </si>
+  <si>
+    <t>20250903_Sharp_Island_E_8.jpg</t>
+  </si>
+  <si>
+    <t>20250903_Sharp_Island_E_10.jpg</t>
+  </si>
+  <si>
+    <t>20250903_Sharp_Island_E_11.jpg</t>
+  </si>
+  <si>
+    <t>20250903_Sharp_Island_E_12.jpg</t>
+  </si>
+  <si>
+    <t>20250905_Tai_Long_Wan_1.jpg</t>
+  </si>
+  <si>
+    <t>20250905_Tai_Long_Wan_3.jpg</t>
+  </si>
+  <si>
+    <t>20250905_Tai_Long_Wan_4.jpg</t>
+  </si>
+  <si>
+    <t>EM100009.JPG</t>
+  </si>
+  <si>
+    <t>EM100024.JPG</t>
+  </si>
+  <si>
+    <t>EM100031.JPG</t>
+  </si>
+  <si>
+    <t>EM100040.JPG</t>
+  </si>
+  <si>
+    <t>EM100049.JPG</t>
+  </si>
+  <si>
+    <t>EM100076.JPG</t>
+  </si>
+  <si>
+    <t>EM100081.JPG</t>
+  </si>
+  <si>
+    <t>EM100147.JPG</t>
+  </si>
+  <si>
+    <t>EM100163.JPG</t>
+  </si>
+  <si>
+    <t>爛頭排(大浪灣)</t>
+  </si>
+  <si>
+    <t>Lan Tau Pai (Tai Long Wan)</t>
+  </si>
+  <si>
+    <t>Sponge NO. 16 in Markus shared folder</t>
+  </si>
+  <si>
+    <t>Sponge NO. 15 in Markus shared folder</t>
+  </si>
+  <si>
+    <t>Sponge NO. 13 in Markus shared folder</t>
+  </si>
+  <si>
+    <t>20250905_Tai_Long_Wan_2.jpg</t>
+  </si>
+  <si>
+    <t>hksd_s45</t>
+  </si>
+  <si>
+    <t>Sponge NO. 14 in Markus shared folder</t>
   </si>
 </sst>
 </file>
@@ -544,12 +571,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -564,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,6 +613,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -916,32 +956,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3115F871-A5BC-864F-8F6D-466AFA625F64}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="17" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="36" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="36" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -960,37 +1001,40 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="3">
         <v>22.3157</v>
@@ -998,37 +1042,40 @@
       <c r="F2" s="3">
         <v>114.36539999999999</v>
       </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="4">
         <v>44658</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>22.3157</v>
@@ -1036,37 +1083,40 @@
       <c r="F3" s="3">
         <v>114.36539999999999</v>
       </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
         <v>22.3157</v>
@@ -1074,37 +1124,40 @@
       <c r="F4" s="3">
         <v>114.36539999999999</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="3">
         <v>22.469899999999999</v>
@@ -1112,37 +1165,40 @@
       <c r="F5" s="3">
         <v>114.33369999999999</v>
       </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <v>22.469899999999999</v>
@@ -1150,37 +1206,40 @@
       <c r="F6" s="3">
         <v>114.33369999999999</v>
       </c>
-      <c r="G6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3">
         <v>22.263500000000001</v>
@@ -1188,37 +1247,40 @@
       <c r="F7" s="3">
         <v>114.3562</v>
       </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="4">
         <v>44783</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3">
         <v>22.353100000000001</v>
@@ -1226,37 +1288,40 @@
       <c r="F8" s="3">
         <v>114.36450000000001</v>
       </c>
-      <c r="G8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="4">
         <v>44563</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>22.344799999999999</v>
@@ -1264,37 +1329,40 @@
       <c r="F9" s="3">
         <v>114.3698</v>
       </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="4">
         <v>44207</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>22.344799999999999</v>
@@ -1302,37 +1370,40 @@
       <c r="F10" s="3">
         <v>114.3698</v>
       </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
         <v>22.344799999999999</v>
@@ -1340,37 +1411,40 @@
       <c r="F11" s="3">
         <v>114.3698</v>
       </c>
-      <c r="G11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="4">
         <v>44478</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
       <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3">
         <v>22.344799999999999</v>
@@ -1378,37 +1452,40 @@
       <c r="F12" s="3">
         <v>114.3698</v>
       </c>
-      <c r="G12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>22.403300000000002</v>
@@ -1416,37 +1493,40 @@
       <c r="F13" s="3">
         <v>114.3933</v>
       </c>
-      <c r="G13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="4">
         <v>45203</v>
       </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
       <c r="J13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
         <v>22.403300000000002</v>
@@ -1454,37 +1534,40 @@
       <c r="F14" s="3">
         <v>114.3933</v>
       </c>
-      <c r="G14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="4">
         <v>44626</v>
       </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
       <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3">
         <v>22.466699999999999</v>
@@ -1492,37 +1575,40 @@
       <c r="F15" s="3">
         <v>114.41679999999999</v>
       </c>
-      <c r="G15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="4">
         <v>44448</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
         <v>15</v>
       </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3">
         <v>22.466699999999999</v>
@@ -1530,37 +1616,40 @@
       <c r="F16" s="3">
         <v>114.41679999999999</v>
       </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="4">
         <v>44448</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3">
         <v>22.466699999999999</v>
@@ -1568,37 +1657,40 @@
       <c r="F17" s="3">
         <v>114.41679999999999</v>
       </c>
-      <c r="G17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="4">
         <v>44204</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
         <v>15</v>
       </c>
-      <c r="J17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3">
         <v>22.466699999999999</v>
@@ -1606,37 +1698,40 @@
       <c r="F18" s="3">
         <v>114.41679999999999</v>
       </c>
-      <c r="G18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
         <v>15</v>
       </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3">
         <v>22.215800000000002</v>
@@ -1644,37 +1739,40 @@
       <c r="F19" s="3">
         <v>114.1854</v>
       </c>
-      <c r="G19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3">
         <v>22.320799999999998</v>
@@ -1682,37 +1780,40 @@
       <c r="F20" s="3">
         <v>114.3498</v>
       </c>
-      <c r="G20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="4">
         <v>45265</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
       <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E21" s="3">
         <v>22.320799999999998</v>
@@ -1720,37 +1821,40 @@
       <c r="F21" s="3">
         <v>114.3498</v>
       </c>
-      <c r="G21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="4">
         <v>45265</v>
       </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
       <c r="J21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E22" s="3">
         <v>22.320799999999998</v>
@@ -1758,37 +1862,40 @@
       <c r="F22" s="3">
         <v>114.3498</v>
       </c>
-      <c r="G22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="4">
         <v>45265</v>
       </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
       <c r="J22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E23" s="3">
         <v>22.3385</v>
@@ -1796,37 +1903,40 @@
       <c r="F23" s="3">
         <v>114.2671</v>
       </c>
-      <c r="G23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="4">
         <v>45966</v>
       </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
       <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3">
         <v>22.3279</v>
@@ -1834,37 +1944,40 @@
       <c r="F24" s="3">
         <v>114.3019</v>
       </c>
-      <c r="G24" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="3">
         <v>20250809</v>
       </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
       <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E25" s="3">
         <v>22.3279</v>
@@ -1872,37 +1985,40 @@
       <c r="F25" s="3">
         <v>114.3019</v>
       </c>
-      <c r="G25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="3">
         <v>20250809</v>
       </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
       <c r="J25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E26" s="3">
         <v>22.363800000000001</v>
@@ -1910,37 +2026,40 @@
       <c r="F26" s="3">
         <v>114.2911</v>
       </c>
-      <c r="G26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="3">
         <v>20250903</v>
       </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
       <c r="J26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E27" s="3">
         <v>22.363800000000001</v>
@@ -1948,37 +2067,40 @@
       <c r="F27" s="3">
         <v>114.2911</v>
       </c>
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="3">
         <v>20250903</v>
       </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
       <c r="J27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E28" s="3">
         <v>22.363800000000001</v>
@@ -1986,37 +2108,40 @@
       <c r="F28" s="3">
         <v>114.2911</v>
       </c>
-      <c r="G28" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="3">
         <v>20250903</v>
       </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
       <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E29" s="3">
         <v>22.363800000000001</v>
@@ -2024,37 +2149,40 @@
       <c r="F29" s="3">
         <v>114.2911</v>
       </c>
-      <c r="G29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="3">
         <v>20250903</v>
       </c>
-      <c r="I29" t="s">
-        <v>15</v>
-      </c>
       <c r="J29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E30" s="3">
         <v>22.363800000000001</v>
@@ -2062,37 +2190,40 @@
       <c r="F30" s="3">
         <v>114.2911</v>
       </c>
-      <c r="G30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="3">
         <v>20250903</v>
       </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
       <c r="J30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E31" s="3">
         <v>22.363499999999998</v>
@@ -2100,37 +2231,40 @@
       <c r="F31" s="3">
         <v>114.29049999999999</v>
       </c>
-      <c r="G31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="3">
         <v>20250903</v>
       </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
       <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E32" s="3">
         <v>22.3644</v>
@@ -2138,189 +2272,204 @@
       <c r="F32" s="3">
         <v>114.29</v>
       </c>
-      <c r="G32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="3">
         <v>20250903</v>
       </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
       <c r="J32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="3">
-        <v>22.402999999999999</v>
-      </c>
-      <c r="F33" s="3">
-        <v>114.3937</v>
-      </c>
-      <c r="G33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="3">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="8">
+        <v>22.405899999999999</v>
+      </c>
+      <c r="F33" s="8">
+        <v>114.38720000000001</v>
+      </c>
+      <c r="G33" s="8">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="8">
         <v>20250905</v>
       </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="3">
-        <v>22.402999999999999</v>
-      </c>
-      <c r="F34" s="3">
-        <v>114.3937</v>
-      </c>
-      <c r="G34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="J33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="8">
+        <v>22.405899999999999</v>
+      </c>
+      <c r="F34" s="8">
+        <v>114.38720000000001</v>
+      </c>
+      <c r="G34" s="8">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="8">
         <v>20250905</v>
       </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="3">
-        <v>22.402999999999999</v>
-      </c>
-      <c r="F35" s="3">
-        <v>114.3937</v>
-      </c>
-      <c r="G35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="J34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="8">
+        <v>22.405899999999999</v>
+      </c>
+      <c r="F35" s="8">
+        <v>114.38720000000001</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="8">
         <v>20250905</v>
       </c>
-      <c r="I35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="3">
-        <v>22.321400000000001</v>
-      </c>
-      <c r="F36" s="3">
-        <v>114.31619999999999</v>
-      </c>
-      <c r="G36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="8">
+        <v>22.405899999999999</v>
+      </c>
+      <c r="F36" s="8">
+        <v>114.38720000000001</v>
+      </c>
+      <c r="G36" s="8">
+        <v>5</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="8">
+        <v>20250905</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E37" s="3">
         <v>22.321400000000001</v>
@@ -2328,37 +2477,40 @@
       <c r="F37" s="3">
         <v>114.31619999999999</v>
       </c>
-      <c r="G37" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" t="s">
-        <v>15</v>
+      <c r="G37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E38" s="3">
         <v>22.321400000000001</v>
@@ -2366,37 +2518,40 @@
       <c r="F38" s="3">
         <v>114.31619999999999</v>
       </c>
-      <c r="G38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I38" t="s">
-        <v>15</v>
+      <c r="G38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E39" s="3">
         <v>22.321400000000001</v>
@@ -2404,37 +2559,40 @@
       <c r="F39" s="3">
         <v>114.31619999999999</v>
       </c>
-      <c r="G39" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
+      <c r="G39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E40" s="3">
         <v>22.321400000000001</v>
@@ -2442,37 +2600,40 @@
       <c r="F40" s="3">
         <v>114.31619999999999</v>
       </c>
-      <c r="G40" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I40" t="s">
-        <v>15</v>
+      <c r="G40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="J40" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E41" s="3">
         <v>22.321400000000001</v>
@@ -2480,37 +2641,40 @@
       <c r="F41" s="3">
         <v>114.31619999999999</v>
       </c>
-      <c r="G41" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I41" t="s">
-        <v>15</v>
+      <c r="G41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E42" s="3">
         <v>22.321400000000001</v>
@@ -2518,37 +2682,40 @@
       <c r="F42" s="3">
         <v>114.31619999999999</v>
       </c>
-      <c r="G42" t="s">
-        <v>123</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
         <v>160</v>
       </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E43" s="3">
         <v>22.321400000000001</v>
@@ -2556,37 +2723,40 @@
       <c r="F43" s="3">
         <v>114.31619999999999</v>
       </c>
-      <c r="G43" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" t="s">
-        <v>15</v>
+      <c r="G43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="J43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E44" s="3">
         <v>22.321400000000001</v>
@@ -2594,23 +2764,67 @@
       <c r="F44" s="3">
         <v>114.31619999999999</v>
       </c>
-      <c r="G44" t="s">
-        <v>123</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I44" t="s">
-        <v>15</v>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="J44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>160</v>
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22.321400000000001</v>
+      </c>
+      <c r="F45" s="3">
+        <v>114.31619999999999</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
